--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_renzhi_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_renzhi_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>老师带领大家研究一些神奇的东西。那么我们日常生活中会见到很多种材料，对不对？那么对这节课，老师先给大家带来了几种日常生活中见不到的材料。请同学们一起来认真观看，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请同学们一起来认真观看”体现出老师发起了一个开展课堂活动的指令，其中，“请同学们一起来”中的“一起”体现出这个课堂活动是老师邀请全体学生共同参与的，同时，“认真观看”意味着学生需要集中注意力观察。这个活动没有涉及到学生之间的互动，也没有明确指出是书写、发言或者听写等具体的课堂活动，而是要求全体学生关注和观看老师展示的材料。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地进行的观看活动，符合“学生齐看”的特征，但这个活动并不在预设的课堂活动类别中，可以将其归类为“集体未知”的活动。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -508,7 +512,11 @@
           <t>好短暂的一分钟时间，做好准备的，想好的可以举手发言，好，第八组的同学，你来说，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"好短暂的一分钟时间，做好准备的，想好的可以举手发言"体现出老师发起了一个开展课堂活动的指令，其中，“想好的可以举手发言”体现出老师邀请学生在准备好后用话语来表达自己的想法。进一步地，“好，第八组的同学，你来说”中，老师特别点名了第八组的一位同学来发言，这表明该学生被选中来展示他的思考成果。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -516,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -535,7 +543,11 @@
           <t>加上一个哪里的椅子和桌子，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“加上一个哪里的椅子和桌子”是老师在描述场景或者布置教室的环境，但并没有明确指出学生需要做什么，没有体现出与预设的课堂活动类别相符的特征。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -562,7 +574,11 @@
           <t>非常好，是用木头做成的，做成的。还有人请坐，还有人知道不同的材料吗？</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”还有人请坐“体现出老师对一个已经发言的学生给予了回应，让他坐下，但并没有发起新的课堂活动。接着，“还有人知道不同的材料吗？”体现出老师邀请了解其他材料的同学发言，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -570,7 +586,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +605,11 @@
           <t>描述的，非常准确啊，请坐客厅的灯还有谁有其他材料？</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请坐”是对学生的礼貌回应，而“客厅的灯还有谁有其他材料？”这句话是在询问是否有其他学生有关于客厅灯或其他材料的信息，这表明老师可能在收集学生的观点或材料，但没有明确指示学生要进行哪种具体的课堂活动，如发言、展示等。综合这段话的分析过程，无法确定一个明确的课堂活动类别。
@@ -616,7 +636,11 @@
           <t>嗯，概括的很全面，请坐，还有谁有不同的婷婷，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“嗯，概括的很全面，请坐”是对某个学生的发言做出的反馈，意味着该学生已经完成了发言或展示，而“还有谁有不同的婷婷”则是在询问是否有人有不同的观点或意见，特别是针对一个名叫“婷婷”的学生。这表明老师可能在邀请其他学生对婷婷的观点发表不同的看法，或者参与到讨论中来。综合分析，这个课堂活动可能是老师在鼓励更多的学生进行“个体发言”，尤其是那些持有不同观点的学生。
@@ -628,7 +652,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -647,7 +671,11 @@
           <t>你就把这种东西写上，然后对它的特点进行一个分析。比如说木材是不是透明的，如果是你就画上。对，好，如果不是你就画上给大家五分钟的时间啊，一定要记得轻声讨论。现在开始，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”你就把这种东西写上，然后对它的特点进行一个分析“体现出老师发起了一个开展课堂活动的指令。首先，“你就把这种东西写上”中的“你”可能是指代全体学生，要求他们书写某些内容，进一步地，“对它的特点进行一个分析”体现出老师要求学生分析事物的特性。接着，“比如说木材是不是透明的，如果是你就画上。对，好，如果不是你就画上”这部分，老师提供了具体的分析方法和记录方式，即通过画图来标记木材的透明度。最后，“给大家五分钟的时间啊，一定要记得轻声讨论”体现出老师给出了活动时间限制，并且允许学生进行轻声讨论。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，同时允许轻声讨论，符合“独立练习”的特征，同时带有“小组学习”的元素。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”和“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -655,7 +683,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +702,11 @@
           <t>那么接下来我们每一组老师让你负责来说一种材料。那么首先我们用第一组来说一下纸这种材料，请第一组派出一个发言的同学，你把你们组的纸举起来，让大家看一下，你找的对不，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“每一组老师让你负责来说一种材料”体现出老师发起了一个开展课堂活动的指令，要求每个小组选择一种材料并进行介绍，这是一个小组任务。进一步地，“请第一组派出一个发言的同学”表明老师要求第一组选出代表来发言，符合“个体发言”的特征。同时，“你把你们组的纸举起来，让大家看一下，你找的对不”这部分指令，要求该同学展示小组的材料，确认是否正确，这涉及到全班的观察和评价，也是课堂活动的一部分。综合上述整段话的分析过程，这个课堂活动包含了“小组学习”（小组共同选择材料）、“个体发言”（小组代表介绍材料）和“多人展示”（向全班展示材料）。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习、个体发言、多人展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -701,7 +733,11 @@
           <t>嗯，那你照着我们前面的这个说，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那你照着我们前面的这个说”体现出老师发起了一个开展课堂活动的指令，其中，“你”指代一个特定的学生，要求其按照之前的内容进行复述或模仿。这个指令表明老师希望一个学生用话语来表达或重现之前讨论过的内容，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -709,7 +745,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -728,7 +764,11 @@
           <t>首先纸透明吗？纸不透明，嗯，继续，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“首先纸透明吗？”体现出老师可能在引导学生进行思考或者讨论关于纸的特性，但并没有明确的课堂活动指令，如“大家讨论一下”或“请某位同学分享你的看法”。而“纸不透明，嗯，继续”是老师在对学生已有的知识进行确认或者对学生的回答进行回应，但没有启动新的课堂活动。综合上述分析，这段话语中没有明确的课堂活动指示，所以无法预测具体的课堂活动类别。
@@ -755,7 +795,11 @@
           <t>你来说第三组啊，你们是第二组。好听就说吧，玻璃把你们组找到的玻璃举起来，先拿先放啊，找的对不对？对对，那你来介绍一下玻璃的这些特点，可以看着你们的那张纸数啊。因为老师前面的字可能没有你们的纸大，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来说第三组啊，你们是第二组”体现出老师发起了一个开展课堂活动的指令，邀请第三组的一位学生发言，同时确认第二组的身份。“好，听就说吧”这句话是在鼓励学生开始说话，而“玻璃把你们组找到的玻璃举起来，先拿先放啊，找的对不对？”这部分是要求第二组的学生展示他们找到的玻璃，并检查他们是否找对了。接着，“那你来介绍一下玻璃的这些特点”是指定某位学生（可能是第三组的）来介绍玻璃的特性，这符合“个体发言”的特征。最后，“可以看着你们的那张纸数啊。因为老师前面的字可能没有你们的纸大”是在指导学生如何进行介绍，提供了参考依据。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -763,7 +807,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -782,7 +826,11 @@
           <t>嗯，他说不怎么光滑，继续说，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“他说不怎么光滑，继续说”体现出老师在鼓励一个学生继续表达他的观点或描述。其中，“他说不怎么光滑”可能是老师转述学生的话，而“继续说”是对该学生的指令，让他继续分享他的想法或观察。综合分析，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -790,7 +838,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -809,7 +857,11 @@
           <t>嗯，有什么其他特点？可以当镜子照。因为它有反光的这种特点，对不对？嗯，好，请坐。那有没有人对郝婷婷刚才的回答存在一点质疑呢，第六组你来说，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”那有没有人对郝婷婷刚才的回答存在一点质疑呢，第六组你来说“体现出老师发起了一个开展课堂活动的指令，邀请第六组的同学对郝婷婷的回答提出质疑。这反映出一个小组内部或小组间通过讨论和提问来交流想法的活动，符合“小组学习”的特征。同时，老师提到“你来说”表明第六组中的一位同学将代表小组发言，这符合“个体发言”的特征。综合分析，这个课堂活动既包含了小组内的讨论，又包含了代表小组发言的个体活动，但主要是围绕着质疑和讨论郝婷婷回答的主题进行。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”和“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -821,7 +873,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +892,11 @@
           <t>对，毛玻璃那个摸起来就不光滑了，是粗糙的。好，下面我请第三组说一下塑料的这种材料，动作快，你来说，把你们组的塑料举起来，他们组的塑料是一根粉色的，服吧。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”下面我请第三组说一下塑料的这种材料“体现出老师发起了一个开展课堂活动的指令，其中，“我请第三组”体现出老师邀请第三组的学生来参与课堂活动，”说一下塑料的这种材料“体现出第三组需要用话语来描述塑料的特性。进一步地，“动作快，你来说，把你们组的塑料举起来”中，“你来说”和“把你们组的塑料举起来”体现出老师要求第三组的一位代表发言，并展示他们组的塑料样品。综合上述整段话的分析过程，这个课堂活动是由一个小组的一名学生执行、向全班同学展示和描述材料的活动，符合“多人展示”和“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示”和“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -848,7 +904,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -867,7 +923,11 @@
           <t>不容易碎，有没有什么其他特点，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有没有什么其他特点”体现出老师发起了一个开展课堂活动的指令，邀请学生用话语来描述事物的其他特性。这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -894,7 +954,11 @@
           <t>你这这个吸管可以吹风，但其他有的材料不能吹风。郝婷婷来说一下，你认为吸管有什么特点？请坐，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“郝婷婷来说一下，你认为吸管有什么特点？”体现出老师发起了一个开展课堂活动的指令，邀请一个学生郝婷婷来阐述她的观点或想法，这符合“个体发言”的特征。而“请坐”则可能是在郝婷婷完成发言后，老师让她回到座位的指令，意味着“个体发言”活动即将开始或已经结束。
@@ -909,7 +973,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -928,7 +992,11 @@
           <t>那么接下来我们说第四组第四种布料，请第四组的同学来回答，把你们组找到的布料举起来，让大家看一眼，对吧？那么你来说一下它的特点，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>多人展示或个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请第四组的同学来回答”体现出老师发起了一个开展课堂活动的指令，邀请第四组的学生参与课堂活动。接着，“把你们组找到的布料举起来，让大家看一眼”这部分指令，要求第四组的学生展示他们找到的布料，这是一种向全班同学展示的活动，符合“多人展示”的特征。最后，“那么你来说一下它的特点”这部分指令，老师邀请一位学生用语言描述布料的特点，符合“个体发言”的特征。综合上述整段话的分析过程，这个课堂活动包括了第四组的多人展示和一个学生个体发言的活动。
@@ -959,7 +1027,11 @@
           <t>可以缝衣服，它是比较硬还是比较软的软的，所以我们能用它来做成衣服，说的很准确。请坐下面我请第五组来说一下木材，嗯，你们走，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请坐下面我请第五组来说一下木材”体现出老师发起了一个开展课堂活动的指令。其中，“我请第五组来说一下”体现出老师邀请第五组的学生来发言，讲述关于木材的内容。综合这段话的分析过程，这个课堂活动是由第五组的学生执行、通过发言来分享关于木材的知识，符合“小组学习”的特征。同时，由于“请坐下面”表明其他学生在座位上坐好，准备听取第五组的发言，所以这是一个即将开始的活动。
@@ -990,7 +1062,11 @@
           <t>不不易摔碎，不易摔碎很好。</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语是对某个特性或行为的评价，没有明显的指令或活动发起，没有提及学生需要做什么，因此无法识别出预设的课堂活动类别。
@@ -1017,7 +1093,11 @@
           <t>那么下面请第七组来说一下食材啊，第六组第六组来说一下陶瓷，把你们组找到的陶瓷，让大家看一眼找的，对不对？对，一个陶瓷片啊，说一下陶瓷，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"那么下面请第七组来说一下食材啊，第六组第六组来说一下陶瓷，把你们组找到的陶瓷，让大家看一眼找的，对不对？对，一个陶瓷片啊，说一下陶瓷，“体现出老师发起了两个开展课堂活动的指令。首先，”请第七组来说一下食材啊“体现出老师邀请第七组的学生分享他们关于食材的研究或发现，这符合“多人展示”的特征，因为多个学生组成的小组共同分享他们的成果。接着，”第六组第六组来说一下陶瓷“进一步强调了第六组需要分享陶瓷相关的内容，同样符合“多人展示”的特征。然后，”把你们组找到的陶瓷，让大家看一眼找的，对不对？“这部分，老师要求第六组展示他们找到的陶瓷，这既包含了实物展示，也包含了口头的解释，进一步支持了“多人展示”的判断。最后，”对，一个陶瓷片啊，说一下陶瓷“是对第六组展示内容的确认，鼓励他们详细描述陶瓷。综合上述整段话的分析过程，这个课堂活动是由第六组和第七组的学生执行、向全班同学展示他们的研究成果，符合“多人展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1029,7 +1109,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1048,7 +1128,11 @@
           <t>斑纹斑纹就是花斑，它没有斑纹，有没有光泽呢？他说陶瓷没有光泽，陶瓷容不容易摔碎，他说不容易摔碎，老师觉得应该有不同意见了，有谁觉得有不同意见来说来，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”有谁觉得有不同意见来说来“体现出老师发起了一个开展课堂活动的指令，邀请持不同意见的学生发言，”有不同意见的“体现了老师鼓励学生表达不同的观点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1060,7 +1144,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1079,7 +1163,11 @@
           <t>因为这个瓷砖从墙上掉到地上的时候，它就容易碎，所以这才是陶瓷的一个特点啊。请同学们注意。下面我请第七组来说一下食材，第七组，你们是第七组，那你们先说第七组说一些食材啊，组，行，你们说食材也没关系，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”下面我请第七组来说一下食材“体现出老师发起了一个开展课堂活动的指令，其中，“第七组”指定了一个小组，”来说一下食材“表明老师邀请这个小组的学生来讨论或分享关于食材的知识。综合上述整段话的分析过程，这个课堂活动是由一个小组执行、且是一种口述活动，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1106,7 +1194,11 @@
           <t>找到食材没食材是哪个？对，轻拿轻放，你说一下它的特点吧，</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你说一下它的特点吧”体现出老师发起了一个开展课堂活动的指令，其中的“你”可能是指定的一个学生，而“说一下它的特点”表明老师邀请这个学生用话语来描述某种事物的特点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1114,7 +1206,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1133,7 +1225,11 @@
           <t>大理石，你拿的那个大理石，上面有花斑斑纹，没有这有的啊，有斑纹，对，没有光泽易碎。嗯，很大的大理石摔下来也是容易碎的。它有什么其他的特点，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在描述大理石的一些特性，如斑纹、无光泽和易碎性，并提到如果大的大理石摔下来也会容易碎。这段话中没有明显的指令性语言来启动一个特定的课堂活动，如发言、展示或练习。老师的话语更像是一种信息的传递或知识的讲解，没有明确要求学生做什么。
@@ -1160,7 +1256,11 @@
           <t>铺在地上，因为它很坚硬，请坐下面我请最后一组来做一下金属，就是你们组嗯三号同学来说吧，三号同学，女生这边的女生对，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我请最后一组来做一下金属”体现出老师发起了一个开展课堂活动的指令，其中，“最后一组”指定了参与活动的小组，“做一下金属”可能是指进行与金属相关的一个课堂活动，但具体活动形式未明确。接下来，“就是你们组嗯三号同学来说吧，三号同学，女生这边的女生对”进一步明确了活动的具体执行者是三号女同学，可能是要求她代表小组发言或展示。综合上述整段话的分析过程，这个课堂活动可能是由一个小组内的学生代表进行的活动，但由于活动内容和形式不够清晰，符合“集体未知”的特征。同时，三号女同学被点名，也符合“个体未知”的特征，因为活动的具体内容没有明确。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”和“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1191,7 +1291,11 @@
           <t>比如说铁叫不叫做金属，叫铁式金属，铜叫不叫做金属，黄金叫不叫金属，白银叫不叫金属。所以金属材料它的划分里面有很多种更详细的金属材料。这个同学们要注意，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在讲解金属材料的分类，提到了铁、铜、黄金和白银是否属于金属的问题，并提醒同学们注意金属材料的细分种类。这段话没有直接指示学生进行任何特定的课堂活动，比如发言、展示或练习，而是老师在传授知识，让学生被动接受信息。
@@ -1218,7 +1322,11 @@
           <t>你你说一下你的想法思彤，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你你说一下你的想法”体现出老师发起了一个开展课堂活动的指令，邀请一个名为思彤的学生用话语来表达她的观点或想法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1230,7 +1338,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1249,7 +1357,11 @@
           <t>你们随身携带带到实验室来，以及在班级所用的这个笔袋儿里面的装的东西，它都是不同的材料。那你们想一想笔袋儿以及里面的东西都是什么材料呢？请同学们把活动手册啊翻到我们的第一页，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你们想一想笔袋儿以及里面的东西都是什么材料呢？”体现出老师发起了一个开展课堂活动的指令，其中，“你们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“想一想”体现出老师要求学生进行思考活动，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。同时，“请同学们把活动手册啊翻到我们的第一页”表明老师要求学生进行具体的操作，这通常是学生在准备完成任务前的辅助活动，但并不是一个单独的课堂活动。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1257,7 +1369,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1276,7 +1388,11 @@
           <t>右面有很多我们见到的材料，请同学们把左面的东西和右面的材料进行连线，看你们找的准不准确，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请同学们把左面的东西和右面的材料进行连线”体现出老师发起了一个开展课堂活动的指令，其中，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，”连线“体现了这个活动是要求学生操作并完成匹配任务，通常情况下，连线活动是个体完成的，不能集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1284,7 +1400,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1303,7 +1419,11 @@
           <t>有的同学的笔袋，你是用布做的，可有的同学的笔袋儿都不是啊，你看一眼制的才是那种叫做尼龙的复合材料。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在描述不同材质的笔袋，提到了布料和尼龙复合材料，但并没有明确发出开展课堂活动的指令，也没有提及学生需要做什么。综合上述整段话的分析过程，这段话语没有包含明显的课堂活动特征。
@@ -1330,7 +1450,11 @@
           <t>嗯，橡皮最简单了，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“嗯，橡皮最简单了”是对某个事物的评价，但没有明确的课堂活动指令，也没有提及学生需要做什么。因此，无法识别出任何预设的课堂活动类别。
@@ -1357,7 +1481,11 @@
           <t>有人的尺子是塑料尺，有人的尺子是，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有人的尺子是塑料尺，有人的尺子是”是在描述不同人的尺子材质，但没有提及任何与课堂活动相关的内容，比如邀请学生发言、进行练习或展示等。因此，从这段话中无法识别出任何预设的课堂活动类别。
@@ -1384,7 +1512,11 @@
           <t>第二组同学，那么下面我请一位同学来说一下你们组你的笔袋里什么材料，对应什么物品，嗯，我叫一个我没有叫过的同学，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“下面我请一位同学来说一下你们组你的笔袋里什么材料，对应什么物品”体现出老师发起了一个开展课堂活动的指令。其中，“我请一位同学来说”体现出老师邀请一个学生来发言，而“你们组”则表明该学生代表的是所在小组，说明发言的内容可能与小组讨论有关，该学生将分享小组的讨论结果或结论。“我叫一个我没有叫过的同学”进一步表明老师希望听到新的观点或反馈，倾向于选择之前没有发言过的学生。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，代表其所在小组，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1396,7 +1528,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1415,7 +1547,11 @@
           <t>你来说第八组对，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“第八组”则明确了被邀请的是第八组的一位同学。结合前文的“对”，可以推测老师可能在确认或纠正某个观点，因此，该学生被要求用话语来表达或解释他的看法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1423,7 +1559,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1578,11 @@
           <t>玻璃做的用玻璃让大家看一看，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>多人展示或个体展示</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“玻璃做的用玻璃让大家看一看”体现出老师发起了一个开展课堂活动的指令，其中，“让大家看一看”体现出老师邀请全体学生共同参与观察活动。这个活动是让学生观看物品，但并未明确是集体性的口头表达活动，还是独立的观察活动。综合上述整段话的分析过程，这个课堂活动可能是由全体学生参与的观察活动，但无法确定是否属于“学生齐读”、“学生齐写”或“学生听写”等有明确集体行为的课堂活动。因此，这个活动符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1469,7 +1609,11 @@
           <t>继续，照着你的活动手册给大家介绍，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“继续”表明老师希望学生继续进行之前开始的活动，而“照着你的活动手册给大家介绍”体现了老师要求一个学生依据活动手册的内容向全班同学进行分享。这个任务要求学生用语言表达活动手册上的内容，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1477,7 +1621,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1496,7 +1640,11 @@
           <t>活动，手册里有笔吗？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在询问是否有物品（笔）在手册中，这并不是一个直接发起的课堂活动，而是老师在确认课堂资源的准备情况。因此，无法从这段话语中推断出具体的课堂活动类别。
@@ -1523,7 +1671,11 @@
           <t>做的？铅笔芯是拿石墨做的，对你照着你的活动手册说活动手册里有橡皮，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“做的？”体现出老师可能在询问学生是否知道制作铅笔芯的过程，然后提到了“铅笔芯是拿石墨做的”，这部分是对铅笔芯成分的解释，接着说“对你照着你的活动手册说”，这句话可能是在引导学生参考活动手册的内容来表述一些信息，但并没有明确指明是哪个具体的课堂活动，如“个体发言”或“独立练习”。最后提到“活动手册里有橡皮”，这可能是老师在提示学生查看活动手册中关于橡皮的信息，但同样没有明确的课堂活动指示。综合上述分析，这段话没有提供足够的信息来判断具体的课堂活动类别，因此无法预测出一个预设的课堂活动。
@@ -1550,7 +1702,11 @@
           <t>橡橡皮是橡胶。对，组你来说，女士，</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“橡橡皮是橡胶。对，组你来说，女士”中，“橡橡皮是橡胶”是对物品材质的描述，接着的“对，组你来说，女士”这句话可能是在确认或者邀请某位被称为“女士”的学生，但没有明确指出要进行哪种类型的课堂活动，比如发言、展示等。因此，这段话语中无法识别出一个明确的预设课堂活动类别。
@@ -1577,7 +1733,11 @@
           <t>他说尼龙拉链继续说吧，</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“他说尼龙拉链”可能是老师在提及某个学生的发言或者老师在转述某个观点，然后“继续说吧”体现出老师邀请或鼓励这个学生继续表达他的想法。综合分析，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1585,7 +1745,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1604,7 +1764,11 @@
           <t>接下来啊一分钟的时间观察一下你们自己穿的鞋，你看看你的鞋面，你的鞋带儿，你的鞋底都是由什么材料做成的呢？请同学们一头观察就行，不要把你的鞋子脱下来啊，一头观察就行，</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”接下来啊一分钟的时间观察一下你们自己穿的鞋“体现出老师发起了一个开展课堂活动的指令。首先，”接下来啊一分钟的时间“明确了活动的时间限制，”观察一下你们自己穿的鞋“表明了活动的内容是观察自己的鞋子。进一步地，”你看看你的鞋面，你的鞋带儿，你的鞋底都是由什么材料做成的呢？“进一步指明了观察的具体对象和目的，即了解鞋子各部分的材料。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的观察活动，符合“独立练习”的特征。同时，由于老师要求“不要把你的鞋子脱下来”，说明活动是在座位上进行的，不需要集体行动。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1616,7 +1780,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1635,7 +1799,11 @@
           <t>我看到大多数同学都已经做好了，做起来了。那么下面我就请同学们来说一下你的鞋子，它有什么用什么材料做成的这种材料有什么特点？我来它的功能是什么啊？</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”我来它的功能是什么啊？“体现出老师发起了一个开展课堂活动的指令，邀请学生用话语来回答问题，”它的功能是什么“体现了该学生被要求用话语来描述物品的功能。结合上文“那么下面我就请同学们来说一下你的鞋子，它有什么用什么材料做成的这种材料有什么特点”，可以理解为老师要求学生描述鞋子的材质和特性，以及这些材质的功能。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1643,7 +1811,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1662,7 +1830,11 @@
           <t>那么你说一下这些材料有什么特点面有什么功能呢？你想一想，布料的特点是什么？</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”那么你说一下这些材料有什么特点面有什么功能呢？“体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来描述材料的特点和功能，这符合”个体发言“的特征。进一步地，”你想一想，布料的特点是什么“这句话体现了老师在提示学生思考问题的角度，进而回答前面老师提出的问题，也是要求学生用语言表达其思考结果，符合”个体发言“的特征。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1670,7 +1842,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1689,7 +1861,11 @@
           <t>对，很柔软。我们脚穿着就怎么样了，所以它的柔软的特点决定了它的功能，让我们穿着比较舒适，</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我们脚穿着就怎么样了”体现出老师可能在引导学生思考穿着某种材质的物品时的感受，而“所以它的柔软的特点决定了它的功能，让我们穿着比较舒适”这部分是对前面话题的总结，没有明确的课堂活动指令。综合分析，这段话中没有明显的课堂活动特征，无法确定具体的课堂活动类别。
@@ -1716,7 +1892,11 @@
           <t>所以我们会选择各种各样不同材料的鞋子。因为不同材料的鞋子，有不同的特点，有不同的功能。好，下面请同学们把你们桌面上的材料装到袋子里都有，</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“下面请同学们把你们桌面上的材料装到袋子里都有”体现出老师发起了一个开展课堂活动的指令，其中，“下面请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“把你们桌面上的材料装到袋子里都有”体现出老师要求学生整理桌面材料，这个活动是学生独立完成的动作，不需要口述或者展示，不符合“个体发言”、“小组学习”或“多人展示”的特征，而是一种动手操作的活动，更接近于“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1724,7 +1904,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1743,7 +1923,11 @@
           <t>你想想我能用纸做鞋的鞋底吗？好，因为止住了指这种材料的特点，怎么样适不适合做鞋垫，对，那下面啊同学们就想一想，可以小组两个人小声讨论一下，你想用什么材料给大家介绍一下。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，第一步，分析第一个子文本段——“你想想我能用纸做鞋的鞋底吗？好，因为止住了指这种材料的特点，怎么样适不适合做鞋垫”，这部分话中，老师在引导学生思考纸作为鞋底材料的可行性，但没有直接发起课堂活动的指令。
